--- a/data/annotations/new_annotation_structure_out/iteration_12/iteration_12_mistral-large-2411-3.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_12/iteration_12_mistral-large-2411-3.xlsx
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2704,13 +2704,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
         <v>0</v>
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
         <v>0</v>
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
@@ -7141,7 +7141,7 @@
         </is>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86" t="n">
         <v>0</v>
@@ -7384,10 +7384,10 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
